--- a/projet_10/projet_10_backlog_052025.xlsx
+++ b/projet_10/projet_10_backlog_052025.xlsx
@@ -19,8 +19,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">“Must have”, les fonctionnalités indispensables.
+“Should have”, les fonctionnalités importantes.
+“Could have”, les fonctionnalités de confort.
+“Want to have but Won’t have”, les fonctionnalités souhaitables, mais reportées.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
   <si>
     <t xml:space="preserve">Titre</t>
   </si>
@@ -40,6 +65,9 @@
     <t xml:space="preserve">Données nécessaires</t>
   </si>
   <si>
+    <t xml:space="preserve">MoSCoW</t>
+  </si>
+  <si>
     <t xml:space="preserve">Connexion via une adresse mail</t>
   </si>
   <si>
@@ -50,14 +78,13 @@
   </si>
   <si>
     <t xml:space="preserve">voir les informations me concernant (infos personnelles, photos prises, articles suggérés, …)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A définir en relatif par rapport aux autres user stories en donnant un chiffre parmi : 1, 3, 5, 8, 13, 20, 50, 100.
-1 représentant une user story très simple et 100 une très complexe.</t>
   </si>
   <si>
     <t xml:space="preserve">- adresse mail utilisateur
 - mot de passe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
   </si>
   <si>
     <t xml:space="preserve">Création d’une garde-robe</t>
@@ -117,6 +144,9 @@
 - style souhaité par l’utilisateur</t>
   </si>
   <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
     <t xml:space="preserve">Essayage virtuel</t>
   </si>
   <si>
@@ -130,6 +160,9 @@
 - vêtement recommandé</t>
   </si>
   <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
     <t xml:space="preserve">Définition des préférences de style</t>
   </si>
   <si>
@@ -152,6 +185,9 @@
   </si>
   <si>
     <t xml:space="preserve">- marques préférées de l’utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
   </si>
   <si>
     <t xml:space="preserve">Référencement d’éléments externes</t>
@@ -255,7 +291,7 @@
     <t xml:space="preserve">pouvoir me désinscrire au service de recommandation</t>
   </si>
   <si>
-    <t xml:space="preserve">recevoir des recommandations</t>
+    <t xml:space="preserve">de ne plus recevoir des recommandations</t>
   </si>
   <si>
     <t xml:space="preserve">Gestion des données personnelles</t>
@@ -302,7 +338,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -353,6 +389,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -422,9 +463,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -440,7 +485,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -642,467 +691,574 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="43.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="43.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="14.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="43.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="0" width="14.38"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="92.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="E7" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="A9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="54.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3" t="s">
+      <c r="A11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3" t="s">
-        <v>49</v>
+      <c r="A12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3" t="s">
-        <v>53</v>
+      <c r="A13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3" t="s">
-        <v>57</v>
+      <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3" t="s">
-        <v>61</v>
+      <c r="A15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3" t="s">
-        <v>65</v>
+      <c r="A16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3" t="s">
-        <v>72</v>
+      <c r="A18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3" t="s">
+      <c r="A19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3" t="s">
-        <v>72</v>
+      <c r="G20" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2083,5 +2239,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/projet_10/projet_10_backlog_052025.xlsx
+++ b/projet_10/projet_10_backlog_052025.xlsx
@@ -25,7 +25,7 @@
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,11 +45,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
   <si>
     <t xml:space="preserve">Titre</t>
   </si>
   <si>
+    <t xml:space="preserve">Epopée</t>
+  </si>
+  <si>
     <t xml:space="preserve">En tant que</t>
   </si>
   <si>
@@ -69,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve">Connexion via une adresse mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic</t>
   </si>
   <si>
     <t xml:space="preserve">Utilisateur de l'application </t>
@@ -90,6 +96,9 @@
     <t xml:space="preserve">Création d’une garde-robe</t>
   </si>
   <si>
+    <t xml:space="preserve">Garde-robe</t>
+  </si>
+  <si>
     <t xml:space="preserve">pouvoir créer une garde-robe sur l’application</t>
   </si>
   <si>
@@ -124,10 +133,112 @@
     <t xml:space="preserve">Recommandation basée sur la garde-robe</t>
   </si>
   <si>
+    <t xml:space="preserve">Recommandation</t>
+  </si>
+  <si>
     <t xml:space="preserve">que l’application me propose des vêtements correspondants à mes goûts</t>
   </si>
   <si>
     <t xml:space="preserve">trouver des nouveaux vêtements à porter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Désinscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pouvoir me désinscrire au service de recommandation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de ne plus recevoir des recommandations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion des données personnelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pouvoir modifier et supprimer mes données personnelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exercer mon droit à la rectification et à l’effacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- données personnelles de l'utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion de la durée de conservation des données personnelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pouvoir consulter et modifier la durée de conservation de mes données personnelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrôler la conservation de mes données personnelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- durée de conservation des données de l'utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purge automatique des données personnelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsable de la conformité RGPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">une purge automatique des données
+ personnelles au bout d’un délai maximum fixé sans activité de l’utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respecter les règles de conservation du RGPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout au panier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pouvoir mettre les produits dans un panier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">préparer ma commande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- produits choisis par l'utilisateur
+- quantités par produit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation de la commande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pouvoir valider le contenu de mon panier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passer ma commande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- panier de l’utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choix du type de livraison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pouvoir choisir le type de livraison de ma commande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recevoir ma commande où je veux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- type de livraison choisi par l'utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paiement de la commande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pouvoir payer ma commande par une transaction bancaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terminer mon achat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- type de carte de l'utilisateur
+- numéro et éléments de sécurité de la carte de l’utilisateur</t>
   </si>
   <si>
     <t xml:space="preserve">Personnalisation de la recommandation</t>
@@ -166,13 +277,29 @@
     <t xml:space="preserve">Définition des préférences de style</t>
   </si>
   <si>
+    <t xml:space="preserve">Préférences</t>
+  </si>
+  <si>
     <t xml:space="preserve">pouvoir définir mes styles préférés parmi ceux proposés</t>
   </si>
   <si>
-    <t xml:space="preserve">accéder à des recommandations basés sur mes préférences de style</t>
+    <t xml:space="preserve">accéder à des recommandations basées sur mes préférences de style</t>
   </si>
   <si>
     <t xml:space="preserve">- styles de l'utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pouvoir laisser un avis sur la pertinence des propositions de vêtements faites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">améliorer les recommandations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- recommandation
+- avis de l'utilisateur sur la recommandation</t>
   </si>
   <si>
     <t xml:space="preserve">Référencement des marques préférées</t>
@@ -220,115 +347,6 @@
       <t xml:space="preserve">blogs, sites, de conseil,
  d’influenceur(seuses), de tendances, choisis par l’utilisateur</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pouvoir laisser un avis sur la pertinence des propositions de vêtements faites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">améliorer les recommandations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- recommandation
-- avis de l'utilisateur sur la recommandation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajout au panier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pouvoir mettre les produits dans un panier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">préparer ma commande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- produits choisis par l'utilisateur
-- quantités par produit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validation de la commande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pouvoir valider le contenu de mon panier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passer ma commande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- panier de l’utilisateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choix du type de livraison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pouvoir choisir le type de livraison de ma commande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recevoir ma commande où je veux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- type de livraison choisi par l'utilisateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paiement de la commande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pouvoir payer ma commande par une transaction bancaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">terminer mon achat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- type de carte de l'utilisateur
-- numéro et éléments de sécurité de la carte de l’utilisateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Désinscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pouvoir me désinscrire au service de recommandation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de ne plus recevoir des recommandations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion des données personnelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pouvoir modifier et supprimer mes données personnelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exercer mon droit à la rectification et à l’effacement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- données personnelles de l'utilisateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion de la durée de conservation des données personnelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pouvoir consulter et modifier la durée de conservation de mes données personnelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contrôler la conservation de mes données personnelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- durée de conservation des données de l'utilisateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purge automatique des données personnelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsable de la conformité RGPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">une purge automatique des données
- personnelles au bout d’un délai maximum fixé sans activité de l’utilisateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">respecter les règles de conservation du RGPD</t>
   </si>
 </sst>
 </file>
@@ -463,7 +481,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -484,11 +502,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -498,6 +516,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -689,21 +711,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X1000"/>
+  <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="43.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="0" width="14.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="43.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="9" style="0" width="14.38"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -728,51 +751,59 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="92.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -789,486 +820,574 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="52.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>12</v>
+      <c r="G5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
+      <c r="F8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="54.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>47</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>59</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F14" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>63</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F15" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="5" t="n">
+      <c r="G16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="G18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="4" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="54.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F21" s="0"/>
+      <c r="H21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F22" s="0"/>
+      <c r="H22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="F23" s="0"/>
+      <c r="H23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F24" s="0"/>
+      <c r="H24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F25" s="0"/>
+      <c r="H25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F26" s="0"/>
+      <c r="H26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F27" s="0"/>
+      <c r="H27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F28" s="0"/>
+      <c r="H28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F29" s="0"/>
+      <c r="H29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="5"/>
+    </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2231,6 +2350,20 @@
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1009" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/projet_10/projet_10_backlog_052025.xlsx
+++ b/projet_10/projet_10_backlog_052025.xlsx
@@ -714,7 +714,7 @@
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -772,7 +772,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -798,7 +798,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="s">
@@ -839,7 +839,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>22</v>
@@ -865,7 +865,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>26</v>
@@ -891,7 +891,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>26</v>
@@ -917,7 +917,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5" t="s">
@@ -941,7 +941,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>38</v>
@@ -967,7 +967,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>42</v>
@@ -993,7 +993,7 @@
         <v>46</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>38</v>
@@ -1019,7 +1019,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>50</v>
@@ -1045,7 +1045,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>54</v>
@@ -1071,7 +1071,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>58</v>
@@ -1097,7 +1097,7 @@
         <v>61</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>62</v>
@@ -1123,7 +1123,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>66</v>
@@ -1149,7 +1149,7 @@
         <v>70</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>71</v>
@@ -1175,7 +1175,7 @@
         <v>76</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>77</v>
@@ -1201,7 +1201,7 @@
         <v>80</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>81</v>
@@ -1227,7 +1227,7 @@
         <v>84</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>85</v>
@@ -1253,7 +1253,7 @@
         <v>89</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>90</v>
